--- a/doc/em-andamento/TI_Product_Backlog_StrongBerry.xlsx
+++ b/doc/em-andamento/TI_Product_Backlog_StrongBerry.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roberta\Desktop\workspace\Faculdade\Bandtec\Projeto Sprint2\strongberry2\StrongBerry\Documentação\em-andamento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roberta\Desktop\workspace\Faculdade\Bandtec\StrongBerry\doc\em-andamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE36FFD4-4537-479E-87A8-9EF24755313E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0137D81-5A79-4D9F-8D7C-42E741F4C0F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="45">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -161,39 +161,16 @@
     <t>Criar e lapidar o banco de dados em seu modelo físico, lógico e conceitual .</t>
   </si>
   <si>
-    <t>Linkar site ao banco de dados remoto.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Implementar o site as nuvens usando Microsoft Azure. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="Biome"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Alerta)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Simulação do sensor (Temp. e Umid.)  conectado com BD. </t>
-  </si>
-  <si>
-    <t>Banco de Dados</t>
-  </si>
-  <si>
-    <t>Arq. Comp.</t>
-  </si>
-  <si>
-    <t>TI</t>
-  </si>
-  <si>
-    <t>PI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algoritmo </t>
+    <t>Estabelecer demais melhorias no site.</t>
+  </si>
+  <si>
+    <t>Subir o site me Nuvem/Azure.</t>
+  </si>
+  <si>
+    <t>Implementar a API de cadastro com o site instituicional (cofigurar cadastro e login).</t>
+  </si>
+  <si>
+    <t>Implementar a API de dados com o site instituicional (configurar dashboard e gráficos em tempo real).</t>
   </si>
 </sst>
 </file>
@@ -239,7 +216,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,13 +237,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.89999084444715716"/>
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -328,8 +299,26 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -337,29 +326,8 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -689,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.7109375" defaultRowHeight="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -739,181 +707,181 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="8">
+      <c r="C2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="14">
         <v>8</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="14">
         <v>1</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9">
+      <c r="G2" s="14"/>
+      <c r="H2" s="6">
         <v>2211043</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="8">
+      <c r="C3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="14">
         <v>3</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="14">
         <v>2</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9">
+      <c r="G3" s="14"/>
+      <c r="H3" s="6">
         <v>2211028</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="8">
+      <c r="C4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="14">
         <v>13</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="14">
         <v>3</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9">
+      <c r="G4" s="14"/>
+      <c r="H4" s="6">
         <v>2211011</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="8">
+      <c r="C5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="14">
         <v>5</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="14">
         <v>4</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9">
+      <c r="G5" s="14"/>
+      <c r="H5" s="6">
         <v>2211057</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="8">
+      <c r="C6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="14">
         <v>21</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="14">
         <v>5</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9">
+      <c r="G6" s="14"/>
+      <c r="H6" s="6">
         <v>2211038</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="14">
         <v>5</v>
       </c>
-      <c r="E7" s="8">
-        <v>6</v>
-      </c>
-      <c r="F7" s="8" t="s">
+      <c r="E7" s="14">
+        <v>6</v>
+      </c>
+      <c r="F7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="8"/>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="8">
+      <c r="C8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="14">
         <v>8</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="14">
         <v>7</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="15">
         <v>44263</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="14">
         <f>SUM(D8,D7,D6,D5,D4,D3,D2)</f>
         <v>63</v>
       </c>
@@ -942,173 +910,173 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="14">
+      <c r="C11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="10">
         <v>8</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="10">
         <v>1</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="11">
         <v>44277</v>
       </c>
-      <c r="G11" s="14"/>
+      <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="14">
+      <c r="C12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="10">
         <v>13</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="10">
         <v>2</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="11">
         <v>44279</v>
       </c>
-      <c r="G12" s="14"/>
+      <c r="G12" s="10"/>
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="14">
+      <c r="C13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="10">
         <v>8</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="10">
         <v>3</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="11">
         <v>44281</v>
       </c>
-      <c r="G13" s="14"/>
+      <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="14">
+      <c r="C14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="10">
         <v>13</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="10">
         <v>4</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="11">
         <v>44286</v>
       </c>
-      <c r="G14" s="14"/>
+      <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="10">
         <v>13</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="10">
         <v>5</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="11">
         <v>44287</v>
       </c>
-      <c r="G15" s="14"/>
+      <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="14">
+      <c r="C16" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="10">
         <v>21</v>
       </c>
-      <c r="E16" s="14">
-        <v>6</v>
-      </c>
-      <c r="F16" s="15">
+      <c r="E16" s="10">
+        <v>6</v>
+      </c>
+      <c r="F16" s="11">
         <v>44293</v>
       </c>
-      <c r="G16" s="14"/>
+      <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="14">
+      <c r="C17" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="10">
         <v>13</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="10">
         <v>7</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="11">
         <v>44300</v>
       </c>
-      <c r="G17" s="14"/>
+      <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="14">
+      <c r="C18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="10">
         <v>8</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="10">
         <v>8</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="11">
         <v>44305</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="10">
         <f>SUM(D11:D18)</f>
         <v>97</v>
       </c>
@@ -1140,161 +1108,87 @@
       <c r="A21" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="14">
+      <c r="B21" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="10">
         <v>13</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="10">
         <v>1</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="11">
         <v>44308</v>
       </c>
-      <c r="G21" s="14"/>
+      <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="14">
+      <c r="B22" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="10">
         <v>5</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="10">
         <v>8</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="11">
         <v>44310</v>
       </c>
-      <c r="G22" s="14"/>
+      <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="14">
-        <v>13</v>
-      </c>
-      <c r="E23" s="14">
+      <c r="B23" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="10">
+        <v>8</v>
+      </c>
+      <c r="E23" s="10">
         <v>3</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="11">
         <v>44342</v>
       </c>
-      <c r="G23" s="14"/>
+      <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14">
+      <c r="B24" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="10">
         <v>13</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="10">
         <v>4</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="11">
         <v>44347</v>
       </c>
-      <c r="G24" s="14"/>
-    </row>
-    <row r="25" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14">
-        <v>21</v>
-      </c>
-      <c r="E25" s="14">
-        <v>5</v>
-      </c>
-      <c r="F25" s="15">
-        <v>44317</v>
-      </c>
-      <c r="G25" s="14"/>
-    </row>
-    <row r="26" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14">
-        <v>8</v>
-      </c>
-      <c r="E26" s="14">
-        <v>6</v>
-      </c>
-      <c r="F26" s="15">
-        <v>44323</v>
-      </c>
-      <c r="G26" s="14"/>
-    </row>
-    <row r="27" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14">
-        <v>13</v>
-      </c>
-      <c r="E27" s="14">
-        <v>7</v>
-      </c>
-      <c r="F27" s="15">
-        <v>44330</v>
-      </c>
-      <c r="G27" s="14"/>
-    </row>
-    <row r="28" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14">
-        <v>8</v>
-      </c>
-      <c r="E28" s="14">
-        <v>8</v>
-      </c>
-      <c r="F28" s="15">
-        <v>44335</v>
-      </c>
-      <c r="G28" s="14">
-        <f>SUM(D21:D28)</f>
-        <v>94</v>
+      <c r="G24" s="10">
+        <f>SUM(D17:D24)</f>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/doc/em-andamento/TI_Product_Backlog_StrongBerry.xlsx
+++ b/doc/em-andamento/TI_Product_Backlog_StrongBerry.xlsx
@@ -5,36 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roberta\Desktop\workspace\Faculdade\Bandtec\StrongBerry\doc\em-andamento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SETH\Desktop\Git grupo8 pi\StrongBerry\doc\em-andamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0137D81-5A79-4D9F-8D7C-42E741F4C0F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E110871-990A-4271-824C-C8969CAD9880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="48">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -164,13 +155,22 @@
     <t>Estabelecer demais melhorias no site.</t>
   </si>
   <si>
-    <t>Subir o site me Nuvem/Azure.</t>
-  </si>
-  <si>
     <t>Implementar a API de cadastro com o site instituicional (cofigurar cadastro e login).</t>
   </si>
   <si>
     <t>Implementar a API de dados com o site instituicional (configurar dashboard e gráficos em tempo real).</t>
+  </si>
+  <si>
+    <t>Subir o site em Nuvem/Azure.</t>
+  </si>
+  <si>
+    <t>Implementar ferramenta de suporte.</t>
+  </si>
+  <si>
+    <t>Manual de instalação do produto.</t>
+  </si>
+  <si>
+    <t>Documentação final.</t>
   </si>
 </sst>
 </file>
@@ -657,27 +657,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G24"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="40.7109375" defaultRowHeight="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="40.6640625" defaultRowHeight="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" style="1" customWidth="1"/>
-    <col min="2" max="2" width="97.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="97.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="2" customWidth="1"/>
     <col min="5" max="5" width="29" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="37.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="40.7109375" style="1"/>
+    <col min="8" max="8" width="23.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="40.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -706,7 +706,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
@@ -733,7 +733,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -760,7 +760,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
@@ -787,7 +787,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -814,7 +814,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
@@ -841,7 +841,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
@@ -862,7 +862,7 @@
       </c>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
@@ -886,7 +886,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>0</v>
       </c>
@@ -909,7 +909,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>5</v>
       </c>
@@ -930,7 +930,7 @@
       </c>
       <c r="G11" s="10"/>
     </row>
-    <row r="12" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>7</v>
       </c>
@@ -952,7 +952,7 @@
       <c r="G12" s="10"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>8</v>
       </c>
@@ -973,7 +973,7 @@
       </c>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>9</v>
       </c>
@@ -994,7 +994,7 @@
       </c>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>10</v>
       </c>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>11</v>
       </c>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>13</v>
       </c>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="G17" s="10"/>
     </row>
-    <row r="18" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>14</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>0</v>
       </c>
@@ -1104,12 +1104,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>6</v>
@@ -1125,28 +1125,28 @@
       </c>
       <c r="G21" s="10"/>
     </row>
-    <row r="22" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="10">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E22" s="10">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F22" s="11">
         <v>44310</v>
       </c>
       <c r="G22" s="10"/>
     </row>
-    <row r="23" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>8</v>
       </c>
@@ -1167,12 +1167,12 @@
       </c>
       <c r="G23" s="10"/>
     </row>
-    <row r="24" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>6</v>
@@ -1186,9 +1186,72 @@
       <c r="F24" s="11">
         <v>44347</v>
       </c>
-      <c r="G24" s="10">
-        <f>SUM(D17:D24)</f>
-        <v>60</v>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="10">
+        <v>5</v>
+      </c>
+      <c r="E25" s="10">
+        <v>5</v>
+      </c>
+      <c r="F25" s="11">
+        <v>44348</v>
+      </c>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:7" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="10">
+        <v>8</v>
+      </c>
+      <c r="E26" s="10">
+        <v>6</v>
+      </c>
+      <c r="F26" s="11">
+        <v>44350</v>
+      </c>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="1:7" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="10">
+        <v>13</v>
+      </c>
+      <c r="E27" s="10">
+        <v>7</v>
+      </c>
+      <c r="F27" s="11">
+        <v>44353</v>
+      </c>
+      <c r="G27" s="10">
+        <f>SUM(D21:D27)</f>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
